--- a/InputDisplacingAbatement/Make_data/ESC.xlsx
+++ b/InputDisplacingAbatement/Make_data/ESC.xlsx
@@ -9,10 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="sigma" sheetId="1" r:id="rId1"/>
+    <sheet name="mu" sheetId="2" r:id="rId1"/>
+    <sheet name="q" sheetId="3" r:id="rId2"/>
+    <sheet name="sigma" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,27 +26,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>E21</t>
+  </si>
+  <si>
+    <t>E22</t>
+  </si>
+  <si>
+    <t>n/x</t>
+  </si>
+  <si>
+    <t>sigma</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>nn</t>
+  </si>
+  <si>
+    <t>mu</t>
+  </si>
+  <si>
+    <t>E110</t>
+  </si>
+  <si>
+    <t>E111</t>
+  </si>
+  <si>
+    <t>E210</t>
+  </si>
+  <si>
+    <t>E211</t>
+  </si>
+  <si>
+    <t>E220</t>
+  </si>
+  <si>
+    <t>E221</t>
+  </si>
+  <si>
+    <t>E222</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>E100</t>
+  </si>
   <si>
     <t>E10</t>
   </si>
   <si>
-    <t>E11</t>
-  </si>
-  <si>
     <t>E20</t>
   </si>
   <si>
-    <t>E21</t>
-  </si>
-  <si>
-    <t>E22</t>
-  </si>
-  <si>
-    <t>n/x</t>
-  </si>
-  <si>
-    <t>sigma</t>
+    <t>E200</t>
   </si>
 </sst>
 </file>
@@ -362,20 +403,145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -383,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -391,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -399,23 +565,86 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="B5">
-        <v>5</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>0.2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
       <c r="B6">
-        <v>5</v>
+        <v>0.1</v>
       </c>
     </row>
   </sheetData>
